--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_22_36.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_22_36.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3280904.745562933</v>
+        <v>3278360.523626908</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283183</v>
+        <v>416855.1052283184</v>
       </c>
     </row>
     <row r="9">
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>187.5255871663202</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -665,13 +665,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>187.5255871663202</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>140.7094048023554</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>13.09783323005805</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -704,19 +704,19 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>11.36529914368126</v>
+        <v>11.36529914368134</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>158.7758131900531</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>175.6809662669685</v>
       </c>
       <c r="U2" t="n">
-        <v>187.5255871663202</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -735,19 +735,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>104.8814412733161</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -783,22 +783,22 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>26.91122581714238</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>153.0783995369563</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
@@ -823,16 +823,16 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>153.4336708318195</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -862,25 +862,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>132.8223696106904</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>32.35016756540415</v>
       </c>
       <c r="W4" t="n">
-        <v>94.93503000741518</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="X4" t="n">
-        <v>187.5255871663202</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -893,16 +893,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>124.457793180492</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>6.876045741711437</v>
@@ -911,7 +911,7 @@
         <v>12.28773869504416</v>
       </c>
       <c r="H5" t="n">
-        <v>20.33550755448966</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -944,7 +944,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>140.3157839734241</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -956,13 +956,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -975,19 +975,19 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>105.8910683038362</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
         <v>96.65565115906497</v>
@@ -1023,25 +1023,25 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>141.7193093041456</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>193.6625353078282</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.8352527003384</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>121.5295410096482</v>
       </c>
     </row>
     <row r="7">
@@ -1057,16 +1057,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.6385546828073</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1099,28 +1099,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>116.4834600519698</v>
       </c>
       <c r="S7" t="n">
-        <v>177.1219170672908</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>222.1670476323163</v>
+        <v>198.9855888966366</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.245260737819</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1130,22 +1130,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>151.1668185320129</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>11.83028812346051</v>
+        <v>411.8302881234605</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1184,19 +1184,19 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>207.895202352076</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.0678569565025</v>
       </c>
       <c r="V8" t="n">
-        <v>274.3224137998865</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1209,10 +1209,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>165.200579984769</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
         <v>147.4450655646388</v>
@@ -1221,16 +1221,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>135.4855929438821</v>
       </c>
       <c r="H9" t="n">
-        <v>94.29180769719218</v>
+        <v>94.29180769719216</v>
       </c>
       <c r="I9" t="n">
-        <v>9.051268181532397</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1260,10 +1260,10 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>137.1730436088544</v>
+        <v>137.1730436088543</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>192.675990284458</v>
       </c>
       <c r="U9" t="n">
         <v>225.8191502244401</v>
@@ -1291,7 +1291,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -1300,10 +1300,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.4333581046933</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1336,28 +1336,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>107.2570757305866</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>221.290298616738</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2340681971946</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>47.90775745795847</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>69.99885254423565</v>
       </c>
     </row>
     <row r="11">
@@ -1373,7 +1373,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.6830416206838</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -1382,10 +1382,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187867</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444138</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1525,22 +1525,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>41.33703994143007</v>
       </c>
       <c r="G13" t="n">
-        <v>47.84205650382022</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
@@ -1610,7 +1610,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.6830416206834</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1768,7 +1768,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1780,7 +1780,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0.8253826161909023</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>9.146142788179931</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1844,7 +1844,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710079</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
@@ -1856,7 +1856,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -2005,19 +2005,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>23.10998325717214</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>83.06560892428212</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2081,7 +2081,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -2093,7 +2093,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2245,7 +2245,7 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2254,10 +2254,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>1.79977260571614</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,13 +2284,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>154.0370966050012</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2330,7 +2330,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H23" t="n">
         <v>283.1540821444137</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2491,7 +2491,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428212</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2609,7 +2609,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
-        <v>250.9057009881303</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2618,7 +2618,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784681</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -2710,25 +2710,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>133.3722917337068</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>108.2950343703271</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2843,7 +2843,7 @@
         <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
         <v>250.9057009881286</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>36.21070476472267</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>83.06560892428213</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3041,7 +3041,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187879</v>
       </c>
       <c r="H32" t="n">
         <v>283.1540821444137</v>
@@ -3190,19 +3190,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>102.1557845699818</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>9.146142788179931</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3278,7 +3278,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3314,10 +3314,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695534</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
-        <v>199.0222304576173</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
         <v>250.9057009881286</v>
@@ -3424,22 +3424,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>83.06560892428212</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3481,7 +3481,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -3490,7 +3490,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>140.2695301648962</v>
       </c>
     </row>
     <row r="38">
@@ -3500,7 +3500,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634815</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3515,7 +3515,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H38" t="n">
         <v>283.1540821444137</v>
@@ -3664,19 +3664,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3712,7 +3712,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>170.9457618790577</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
@@ -3721,7 +3721,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>229.2938944146491</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -3752,7 +3752,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H41" t="n">
         <v>283.1540821444137</v>
@@ -3907,16 +3907,16 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>1.799772605716619</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>83.06560892428213</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3989,10 +3989,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H44" t="n">
-        <v>283.1540821444141</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4141,16 +4141,16 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>83.06560892428212</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4186,7 +4186,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>154.8443340724374</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
@@ -4195,7 +4195,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>359.782678487178</v>
+        <v>211.3673327389938</v>
       </c>
       <c r="C2" t="n">
-        <v>359.782678487178</v>
+        <v>211.3673327389938</v>
       </c>
       <c r="D2" t="n">
-        <v>359.782678487178</v>
+        <v>211.3673327389938</v>
       </c>
       <c r="E2" t="n">
-        <v>170.362893470693</v>
+        <v>211.3673327389938</v>
       </c>
       <c r="F2" t="n">
-        <v>28.23218154912183</v>
+        <v>204.4218319897903</v>
       </c>
       <c r="G2" t="n">
-        <v>15.00204697330562</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="H2" t="n">
-        <v>15.00204697330562</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="I2" t="n">
-        <v>15.00204697330562</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="J2" t="n">
-        <v>21.03371160678489</v>
+        <v>21.03371160678478</v>
       </c>
       <c r="K2" t="n">
-        <v>80.81213159058962</v>
+        <v>80.81213159058939</v>
       </c>
       <c r="L2" t="n">
-        <v>191.8743094079188</v>
+        <v>191.8743094079184</v>
       </c>
       <c r="M2" t="n">
-        <v>347.121819064476</v>
+        <v>347.1218190644753</v>
       </c>
       <c r="N2" t="n">
-        <v>509.4952041123834</v>
+        <v>509.4952041123827</v>
       </c>
       <c r="O2" t="n">
-        <v>649.4845259985592</v>
+        <v>649.4845259985582</v>
       </c>
       <c r="P2" t="n">
-        <v>734.4611726020275</v>
+        <v>734.4611726020264</v>
       </c>
       <c r="Q2" t="n">
-        <v>750.1023486652808</v>
+        <v>750.1023486652796</v>
       </c>
       <c r="R2" t="n">
-        <v>738.6222485201482</v>
+        <v>738.6222485201469</v>
       </c>
       <c r="S2" t="n">
-        <v>738.6222485201482</v>
+        <v>578.2426392372649</v>
       </c>
       <c r="T2" t="n">
-        <v>738.6222485201482</v>
+        <v>400.7871177554786</v>
       </c>
       <c r="U2" t="n">
-        <v>549.2024635036631</v>
+        <v>400.7871177554786</v>
       </c>
       <c r="V2" t="n">
-        <v>549.2024635036631</v>
+        <v>211.3673327389938</v>
       </c>
       <c r="W2" t="n">
-        <v>549.2024635036631</v>
+        <v>211.3673327389938</v>
       </c>
       <c r="X2" t="n">
-        <v>549.2024635036631</v>
+        <v>211.3673327389938</v>
       </c>
       <c r="Y2" t="n">
-        <v>549.2024635036631</v>
+        <v>211.3673327389938</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>644.1614988942545</v>
+        <v>189.4550762544326</v>
       </c>
       <c r="C3" t="n">
-        <v>469.7084696131274</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="D3" t="n">
-        <v>320.7740599518762</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="E3" t="n">
-        <v>161.5366049464207</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="F3" t="n">
-        <v>15.00204697330562</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="G3" t="n">
-        <v>15.00204697330562</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="H3" t="n">
-        <v>15.00204697330562</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="I3" t="n">
-        <v>15.00204697330562</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="J3" t="n">
-        <v>15.00204697330562</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="K3" t="n">
-        <v>67.13418877024196</v>
+        <v>67.13418877024208</v>
       </c>
       <c r="L3" t="n">
-        <v>183.554828077265</v>
+        <v>183.5548280772649</v>
       </c>
       <c r="M3" t="n">
-        <v>338.7690911140247</v>
+        <v>338.7690911140244</v>
       </c>
       <c r="N3" t="n">
-        <v>512.5000587546606</v>
+        <v>512.5000587546601</v>
       </c>
       <c r="O3" t="n">
-        <v>649.2101578476354</v>
+        <v>649.2101578476348</v>
       </c>
       <c r="P3" t="n">
-        <v>739.5989987017073</v>
+        <v>739.5989987017061</v>
       </c>
       <c r="Q3" t="n">
-        <v>750.1023486652808</v>
+        <v>750.1023486652796</v>
       </c>
       <c r="R3" t="n">
-        <v>750.1023486652808</v>
+        <v>722.9192922843276</v>
       </c>
       <c r="S3" t="n">
-        <v>750.1023486652808</v>
+        <v>722.9192922843276</v>
       </c>
       <c r="T3" t="n">
-        <v>750.1023486652808</v>
+        <v>533.4995072678429</v>
       </c>
       <c r="U3" t="n">
-        <v>750.1023486652808</v>
+        <v>344.0797222513581</v>
       </c>
       <c r="V3" t="n">
-        <v>750.1023486652808</v>
+        <v>344.0797222513581</v>
       </c>
       <c r="W3" t="n">
-        <v>750.1023486652808</v>
+        <v>189.4550762544326</v>
       </c>
       <c r="X3" t="n">
-        <v>750.1023486652808</v>
+        <v>189.4550762544326</v>
       </c>
       <c r="Y3" t="n">
-        <v>750.1023486652808</v>
+        <v>189.4550762544326</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>464.788593944336</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="C4" t="n">
-        <v>464.788593944336</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="D4" t="n">
-        <v>464.788593944336</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="E4" t="n">
-        <v>316.8755003619428</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="F4" t="n">
-        <v>169.9855528640325</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="G4" t="n">
-        <v>169.9855528640325</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="H4" t="n">
-        <v>15.00204697330562</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="I4" t="n">
-        <v>15.00204697330562</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="J4" t="n">
-        <v>15.00204697330562</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="K4" t="n">
-        <v>15.00204697330562</v>
+        <v>88.2958943459421</v>
       </c>
       <c r="L4" t="n">
-        <v>187.8896250884408</v>
+        <v>100.3335179349383</v>
       </c>
       <c r="M4" t="n">
-        <v>373.5399563830978</v>
+        <v>285.983849229595</v>
       </c>
       <c r="N4" t="n">
-        <v>559.1902876777548</v>
+        <v>471.6341805242516</v>
       </c>
       <c r="O4" t="n">
-        <v>721.928491114305</v>
+        <v>634.3723839608018</v>
       </c>
       <c r="P4" t="n">
-        <v>750.1023486652808</v>
+        <v>750.1023486652796</v>
       </c>
       <c r="Q4" t="n">
-        <v>750.1023486652808</v>
+        <v>750.1023486652796</v>
       </c>
       <c r="R4" t="n">
-        <v>750.1023486652808</v>
+        <v>615.9383389575115</v>
       </c>
       <c r="S4" t="n">
-        <v>750.1023486652808</v>
+        <v>426.5185539410268</v>
       </c>
       <c r="T4" t="n">
-        <v>750.1023486652808</v>
+        <v>237.098768924542</v>
       </c>
       <c r="U4" t="n">
-        <v>750.1023486652808</v>
+        <v>237.098768924542</v>
       </c>
       <c r="V4" t="n">
-        <v>750.1023486652808</v>
+        <v>204.4218319897903</v>
       </c>
       <c r="W4" t="n">
-        <v>654.2083789608211</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="X4" t="n">
-        <v>464.788593944336</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="Y4" t="n">
-        <v>464.788593944336</v>
+        <v>15.00204697330559</v>
       </c>
     </row>
     <row r="5">
@@ -4541,22 +4541,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>431.8931844079406</v>
+        <v>922.8554628910356</v>
       </c>
       <c r="C5" t="n">
-        <v>431.8931844079406</v>
+        <v>797.140520284478</v>
       </c>
       <c r="D5" t="n">
-        <v>73.62748580119012</v>
+        <v>438.8748216777276</v>
       </c>
       <c r="E5" t="n">
-        <v>73.62748580119012</v>
+        <v>53.08656907948338</v>
       </c>
       <c r="F5" t="n">
-        <v>66.68198505198664</v>
+        <v>46.14106833027991</v>
       </c>
       <c r="G5" t="n">
-        <v>54.27012778426527</v>
+        <v>33.72921106255854</v>
       </c>
       <c r="H5" t="n">
         <v>33.72921106255854</v>
@@ -4592,25 +4592,25 @@
         <v>1686.460553127927</v>
       </c>
       <c r="S5" t="n">
-        <v>1544.727438003256</v>
+        <v>1686.460553127927</v>
       </c>
       <c r="T5" t="n">
-        <v>1544.727438003256</v>
+        <v>1686.460553127927</v>
       </c>
       <c r="U5" t="n">
-        <v>1544.727438003256</v>
+        <v>1686.460553127927</v>
       </c>
       <c r="V5" t="n">
-        <v>1544.727438003256</v>
+        <v>1686.460553127927</v>
       </c>
       <c r="W5" t="n">
-        <v>1191.958782733142</v>
+        <v>1686.460553127927</v>
       </c>
       <c r="X5" t="n">
-        <v>818.4930244720624</v>
+        <v>1312.994794866847</v>
       </c>
       <c r="Y5" t="n">
-        <v>818.4930244720624</v>
+        <v>922.8554628910356</v>
       </c>
     </row>
     <row r="6">
@@ -4620,19 +4620,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>867.4813089056297</v>
+        <v>131.3611819303009</v>
       </c>
       <c r="C6" t="n">
-        <v>693.0282796245027</v>
+        <v>131.3611819303009</v>
       </c>
       <c r="D6" t="n">
-        <v>544.0938699632514</v>
+        <v>131.3611819303009</v>
       </c>
       <c r="E6" t="n">
-        <v>384.8564149577959</v>
+        <v>131.3611819303009</v>
       </c>
       <c r="F6" t="n">
-        <v>238.3218569846809</v>
+        <v>131.3611819303009</v>
       </c>
       <c r="G6" t="n">
         <v>131.3611819303009</v>
@@ -4659,10 +4659,10 @@
         <v>939.3321053416189</v>
       </c>
       <c r="O6" t="n">
-        <v>1178.137057093077</v>
+        <v>1203.783415967064</v>
       </c>
       <c r="P6" t="n">
-        <v>1595.536043992239</v>
+        <v>1621.182402866226</v>
       </c>
       <c r="Q6" t="n">
         <v>1686.460553127927</v>
@@ -4671,25 +4671,25 @@
         <v>1686.460553127927</v>
       </c>
       <c r="S6" t="n">
-        <v>1686.460553127927</v>
+        <v>1543.309735648992</v>
       </c>
       <c r="T6" t="n">
-        <v>1686.460553127927</v>
+        <v>1347.691013115832</v>
       </c>
       <c r="U6" t="n">
-        <v>1686.460553127927</v>
+        <v>1119.574596246804</v>
       </c>
       <c r="V6" t="n">
-        <v>1451.308444896184</v>
+        <v>884.4224880150612</v>
       </c>
       <c r="W6" t="n">
-        <v>1451.308444896184</v>
+        <v>630.1851312868596</v>
       </c>
       <c r="X6" t="n">
-        <v>1243.456944690652</v>
+        <v>422.3336310813268</v>
       </c>
       <c r="Y6" t="n">
-        <v>1035.696645925698</v>
+        <v>299.5765189503689</v>
       </c>
     </row>
     <row r="7">
@@ -4699,19 +4699,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>669.0168993920704</v>
+        <v>202.6653939904654</v>
       </c>
       <c r="C7" t="n">
-        <v>500.0807164641635</v>
+        <v>33.72921106255854</v>
       </c>
       <c r="D7" t="n">
-        <v>349.9640770518278</v>
+        <v>33.72921106255854</v>
       </c>
       <c r="E7" t="n">
-        <v>202.0509834694346</v>
+        <v>33.72921106255854</v>
       </c>
       <c r="F7" t="n">
-        <v>202.0509834694346</v>
+        <v>33.72921106255854</v>
       </c>
       <c r="G7" t="n">
         <v>33.72921106255854</v>
@@ -4747,28 +4747,28 @@
         <v>1293.13166510086</v>
       </c>
       <c r="R7" t="n">
-        <v>1293.13166510086</v>
+        <v>1175.471604442305</v>
       </c>
       <c r="S7" t="n">
-        <v>1114.220637760162</v>
+        <v>1175.471604442305</v>
       </c>
       <c r="T7" t="n">
-        <v>889.8094785356005</v>
+        <v>974.4760601022676</v>
       </c>
       <c r="U7" t="n">
-        <v>889.8094785356005</v>
+        <v>685.3394330943696</v>
       </c>
       <c r="V7" t="n">
-        <v>889.8094785356005</v>
+        <v>430.6549448884828</v>
       </c>
       <c r="W7" t="n">
-        <v>889.8094785356005</v>
+        <v>430.6549448884828</v>
       </c>
       <c r="X7" t="n">
-        <v>889.8094785356005</v>
+        <v>202.6653939904654</v>
       </c>
       <c r="Y7" t="n">
-        <v>669.0168993920704</v>
+        <v>202.6653939904654</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>790.4790488072772</v>
+        <v>1364.038944598456</v>
       </c>
       <c r="C8" t="n">
-        <v>421.5165318668655</v>
+        <v>1211.345188505514</v>
       </c>
       <c r="D8" t="n">
-        <v>63.25083326011497</v>
+        <v>853.0794898987635</v>
       </c>
       <c r="E8" t="n">
-        <v>63.25083326011497</v>
+        <v>467.2912373005192</v>
       </c>
       <c r="F8" t="n">
-        <v>56.30533251091151</v>
+        <v>460.3457365513158</v>
       </c>
       <c r="G8" t="n">
-        <v>44.35554652761806</v>
+        <v>44.35554652761827</v>
       </c>
       <c r="H8" t="n">
-        <v>44.35554652761806</v>
+        <v>44.35554652761827</v>
       </c>
       <c r="I8" t="n">
-        <v>44.35554652761806</v>
+        <v>44.35554652761827</v>
       </c>
       <c r="J8" t="n">
-        <v>156.8927045872697</v>
+        <v>156.8927045872711</v>
       </c>
       <c r="K8" t="n">
-        <v>376.2952505158974</v>
+        <v>376.2952505159001</v>
       </c>
       <c r="L8" t="n">
-        <v>685.3852714985237</v>
+        <v>685.3852714985278</v>
       </c>
       <c r="M8" t="n">
-        <v>1060.976912556938</v>
+        <v>1060.976912556943</v>
       </c>
       <c r="N8" t="n">
-        <v>1447.259827415481</v>
+        <v>1447.259827415488</v>
       </c>
       <c r="O8" t="n">
-        <v>1798.680568975101</v>
+        <v>1798.680568975109</v>
       </c>
       <c r="P8" t="n">
-        <v>2064.109040631078</v>
+        <v>2064.109040631087</v>
       </c>
       <c r="Q8" t="n">
-        <v>2215.262022208115</v>
+        <v>2215.262022208125</v>
       </c>
       <c r="R8" t="n">
-        <v>2217.777326380903</v>
+        <v>2217.777326380913</v>
       </c>
       <c r="S8" t="n">
-        <v>2217.777326380903</v>
+        <v>2217.777326380913</v>
       </c>
       <c r="T8" t="n">
-        <v>2217.777326380903</v>
+        <v>2007.782172489927</v>
       </c>
       <c r="U8" t="n">
-        <v>2217.777326380903</v>
+        <v>1754.178276574268</v>
       </c>
       <c r="V8" t="n">
-        <v>1940.68397910829</v>
+        <v>1754.178276574268</v>
       </c>
       <c r="W8" t="n">
-        <v>1940.68397910829</v>
+        <v>1754.178276574268</v>
       </c>
       <c r="X8" t="n">
-        <v>1567.218220847211</v>
+        <v>1754.178276574268</v>
       </c>
       <c r="Y8" t="n">
-        <v>1177.078888871399</v>
+        <v>1364.038944598456</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>777.9019437806119</v>
+        <v>584.6257956802586</v>
       </c>
       <c r="C9" t="n">
-        <v>603.4489144994849</v>
+        <v>584.6257956802586</v>
       </c>
       <c r="D9" t="n">
-        <v>454.5145048382336</v>
+        <v>435.6913860190074</v>
       </c>
       <c r="E9" t="n">
-        <v>295.2770498327781</v>
+        <v>276.4539310135519</v>
       </c>
       <c r="F9" t="n">
-        <v>148.7424918596631</v>
+        <v>276.4539310135519</v>
       </c>
       <c r="G9" t="n">
-        <v>148.7424918596631</v>
+        <v>139.5997967268023</v>
       </c>
       <c r="H9" t="n">
-        <v>53.49824166047907</v>
+        <v>44.35554652761827</v>
       </c>
       <c r="I9" t="n">
-        <v>44.35554652761806</v>
+        <v>44.35554652761827</v>
       </c>
       <c r="J9" t="n">
-        <v>217.3941849412448</v>
+        <v>92.56405995424069</v>
       </c>
       <c r="K9" t="n">
-        <v>377.9450376513114</v>
+        <v>253.1149126643079</v>
       </c>
       <c r="L9" t="n">
-        <v>640.1480134809868</v>
+        <v>515.3178884939841</v>
       </c>
       <c r="M9" t="n">
-        <v>965.4833871310913</v>
+        <v>840.6532621440896</v>
       </c>
       <c r="N9" t="n">
-        <v>1313.838064971844</v>
+        <v>1354.069067308665</v>
       </c>
       <c r="O9" t="n">
-        <v>1610.294743386995</v>
+        <v>1902.968955587941</v>
       </c>
       <c r="P9" t="n">
-        <v>1913.591994996769</v>
+        <v>2121.568509855269</v>
       </c>
       <c r="Q9" t="n">
-        <v>2217.777326380903</v>
+        <v>2217.777326380913</v>
       </c>
       <c r="R9" t="n">
-        <v>2217.777326380903</v>
+        <v>2217.777326380913</v>
       </c>
       <c r="S9" t="n">
-        <v>2079.218696472969</v>
+        <v>2079.218696472979</v>
       </c>
       <c r="T9" t="n">
-        <v>2079.218696472969</v>
+        <v>1884.596484064436</v>
       </c>
       <c r="U9" t="n">
-        <v>1851.118544731111</v>
+        <v>1656.496332322577</v>
       </c>
       <c r="V9" t="n">
-        <v>1615.966436499368</v>
+        <v>1421.344224090835</v>
       </c>
       <c r="W9" t="n">
-        <v>1361.729079771167</v>
+        <v>1167.106867362633</v>
       </c>
       <c r="X9" t="n">
-        <v>1153.877579565634</v>
+        <v>959.2553671571004</v>
       </c>
       <c r="Y9" t="n">
-        <v>946.11728080068</v>
+        <v>751.4950683921465</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>826.325913084218</v>
+        <v>342.3852795223471</v>
       </c>
       <c r="C10" t="n">
-        <v>657.3897301563111</v>
+        <v>342.3852795223471</v>
       </c>
       <c r="D10" t="n">
-        <v>507.2730907439753</v>
+        <v>192.2686401100114</v>
       </c>
       <c r="E10" t="n">
-        <v>359.3599971615822</v>
+        <v>44.35554652761827</v>
       </c>
       <c r="F10" t="n">
-        <v>212.4700496636719</v>
+        <v>44.35554652761827</v>
       </c>
       <c r="G10" t="n">
-        <v>44.35554652761806</v>
+        <v>44.35554652761827</v>
       </c>
       <c r="H10" t="n">
-        <v>44.35554652761806</v>
+        <v>44.35554652761827</v>
       </c>
       <c r="I10" t="n">
-        <v>44.35554652761806</v>
+        <v>44.35554652761827</v>
       </c>
       <c r="J10" t="n">
-        <v>60.95254262691974</v>
+        <v>60.95254262692019</v>
       </c>
       <c r="K10" t="n">
-        <v>218.063342327402</v>
+        <v>218.0633423274028</v>
       </c>
       <c r="L10" t="n">
-        <v>474.637509191842</v>
+        <v>474.6375091918433</v>
       </c>
       <c r="M10" t="n">
-        <v>755.5481168921688</v>
+        <v>755.5481168921706</v>
       </c>
       <c r="N10" t="n">
-        <v>1035.213914629315</v>
+        <v>1035.213914629318</v>
       </c>
       <c r="O10" t="n">
-        <v>1277.514248546127</v>
+        <v>1277.514248546129</v>
       </c>
       <c r="P10" t="n">
-        <v>1461.323360659236</v>
+        <v>1461.323360659239</v>
       </c>
       <c r="Q10" t="n">
-        <v>1505.148182155963</v>
+        <v>1505.148182155967</v>
       </c>
       <c r="R10" t="n">
-        <v>1505.148182155963</v>
+        <v>1396.80770162002</v>
       </c>
       <c r="S10" t="n">
-        <v>1505.148182155963</v>
+        <v>1396.80770162002</v>
       </c>
       <c r="T10" t="n">
-        <v>1505.148182155963</v>
+        <v>1173.282147461699</v>
       </c>
       <c r="U10" t="n">
-        <v>1505.148182155963</v>
+        <v>884.1568260503916</v>
       </c>
       <c r="V10" t="n">
-        <v>1505.148182155963</v>
+        <v>884.1568260503916</v>
       </c>
       <c r="W10" t="n">
-        <v>1456.756507956005</v>
+        <v>594.7396560134309</v>
       </c>
       <c r="X10" t="n">
-        <v>1228.766957057988</v>
+        <v>594.7396560134309</v>
       </c>
       <c r="Y10" t="n">
-        <v>1007.974377914458</v>
+        <v>524.0337443525868</v>
       </c>
     </row>
     <row r="11">
@@ -5027,31 +5027,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168615</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H11" t="n">
         <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
         <v>3640.422291068011</v>
@@ -5066,10 +5066,10 @@
         <v>4690.833152398594</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
         <v>4151.812499466574</v>
@@ -5118,25 +5118,25 @@
         <v>93.81666304797189</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L12" t="n">
-        <v>352.5519571452613</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M12" t="n">
-        <v>949.9304447718132</v>
+        <v>840.8417932021785</v>
       </c>
       <c r="N12" t="n">
-        <v>1577.52840832642</v>
+        <v>1468.439756756785</v>
       </c>
       <c r="O12" t="n">
-        <v>2129.438138565707</v>
+        <v>2020.349486996072</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5173,19 +5173,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.8536007400717</v>
+        <v>695.5020655703114</v>
       </c>
       <c r="C13" t="n">
-        <v>513.8536007400717</v>
+        <v>526.5658826424045</v>
       </c>
       <c r="D13" t="n">
-        <v>513.8536007400717</v>
+        <v>526.5658826424045</v>
       </c>
       <c r="E13" t="n">
-        <v>365.9405071576786</v>
+        <v>526.5658826424045</v>
       </c>
       <c r="F13" t="n">
-        <v>365.9405071576786</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G13" t="n">
         <v>317.6151975578601</v>
@@ -5255,7 +5255,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004713</v>
@@ -5270,55 +5270,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
         <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5340,7 +5340,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,31 +5349,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L15" t="n">
-        <v>589.1422692637307</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M15" t="n">
         <v>1186.520756890282</v>
       </c>
       <c r="N15" t="n">
-        <v>1814.118720444889</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O15" t="n">
-        <v>2366.028450684176</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>571.6607764188008</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C16" t="n">
-        <v>402.7245934908938</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D16" t="n">
-        <v>402.7245934908938</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="E16" t="n">
-        <v>402.7245934908938</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="F16" t="n">
-        <v>402.7245934908938</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>94.65038286230612</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2437.724555511392</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>2254.869721166297</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T16" t="n">
-        <v>2035.268256189238</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U16" t="n">
-        <v>1746.193029533436</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V16" t="n">
-        <v>1491.508541327549</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W16" t="n">
-        <v>1202.091371290588</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X16" t="n">
-        <v>974.1018203925706</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y16" t="n">
-        <v>753.3092412490405</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="17">
@@ -5492,7 +5492,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D17" t="n">
         <v>1590.547811004713</v>
@@ -5501,7 +5501,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
@@ -5510,7 +5510,7 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J17" t="n">
         <v>378.1925803111717</v>
@@ -5531,7 +5531,7 @@
         <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q17" t="n">
         <v>4562.265728852256</v>
@@ -5589,31 +5589,31 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797189</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L18" t="n">
-        <v>119.2902967703784</v>
+        <v>634.5603720565524</v>
       </c>
       <c r="M18" t="n">
-        <v>716.6687843969303</v>
+        <v>1231.938859683104</v>
       </c>
       <c r="N18" t="n">
-        <v>1344.266747951537</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190824</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,22 +5647,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400717</v>
+        <v>580.8993044876693</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121648</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="D19" t="n">
-        <v>344.9174178121648</v>
+        <v>388.6197041282754</v>
       </c>
       <c r="E19" t="n">
-        <v>344.9174178121648</v>
+        <v>240.7066105458823</v>
       </c>
       <c r="F19" t="n">
-        <v>344.9174178121648</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G19" t="n">
-        <v>177.7213185270447</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H19" t="n">
         <v>93.81666304797189</v>
@@ -5695,28 +5695,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510509</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854707</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.70136564882</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611859</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138415</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703114</v>
+        <v>762.547769317909</v>
       </c>
     </row>
     <row r="20">
@@ -5729,7 +5729,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D20" t="n">
         <v>1590.547811004713</v>
@@ -5738,22 +5738,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5762,37 +5762,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5814,7 +5814,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5823,34 +5823,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468471</v>
+        <v>184.7035232280583</v>
       </c>
       <c r="L21" t="n">
-        <v>1072.713683962606</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="M21" t="n">
-        <v>1577.52840832642</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="N21" t="n">
-        <v>1577.52840832642</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O21" t="n">
-        <v>2129.438138565707</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400712</v>
+        <v>577.8620388433919</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121643</v>
+        <v>408.925855915485</v>
       </c>
       <c r="D22" t="n">
-        <v>344.9174178121643</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E22" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F22" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G22" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>2041.469518613829</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>1752.394291958027</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>1497.70980375214</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611858</v>
+        <v>1208.292633715179</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138411</v>
+        <v>980.3030828171618</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703109</v>
+        <v>759.5105036736317</v>
       </c>
     </row>
     <row r="23">
@@ -5966,7 +5966,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D23" t="n">
         <v>1590.547811004713</v>
@@ -5975,61 +5975,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6051,7 +6051,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6060,34 +6060,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K24" t="n">
-        <v>280.8495004245706</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L24" t="n">
-        <v>776.1751066403293</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="M24" t="n">
-        <v>1373.553594266881</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N24" t="n">
-        <v>2001.151557821488</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O24" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P24" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C25" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D25" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T25" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U25" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V25" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W25" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X25" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y25" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="26">
@@ -6200,61 +6200,61 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168602</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
         <v>378.1925803111716</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
         <v>4151.812499466572</v>
@@ -6266,10 +6266,10 @@
         <v>3467.980956852887</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="27">
@@ -6288,7 +6288,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6297,19 +6297,19 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797189</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L27" t="n">
-        <v>93.81666304797189</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="M27" t="n">
         <v>680.0291294438171</v>
@@ -6358,28 +6358,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400717</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C28" t="n">
-        <v>344.9174178121648</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D28" t="n">
-        <v>344.9174178121648</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E28" t="n">
-        <v>344.9174178121648</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F28" t="n">
-        <v>344.9174178121648</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782958</v>
@@ -6452,31 +6452,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6497,13 +6497,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6543,25 +6543,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L30" t="n">
-        <v>93.81666304797187</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="M30" t="n">
-        <v>680.0291294438171</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="N30" t="n">
-        <v>1307.627092998424</v>
+        <v>1550.665004989558</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400717</v>
+        <v>695.5020655703114</v>
       </c>
       <c r="C31" t="n">
-        <v>344.9174178121648</v>
+        <v>526.5658826424045</v>
       </c>
       <c r="D31" t="n">
-        <v>344.9174178121648</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="E31" t="n">
-        <v>344.9174178121648</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F31" t="n">
-        <v>344.9174178121648</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G31" t="n">
-        <v>177.7213185270447</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6677,28 +6677,28 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K32" t="n">
         <v>852.8523611075802</v>
@@ -6707,40 +6707,40 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6762,7 +6762,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6771,31 +6771,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803938</v>
+        <v>175.8744207939068</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516144</v>
+        <v>175.8744207939068</v>
       </c>
       <c r="L33" t="n">
-        <v>1074.481071167373</v>
+        <v>671.2000270096656</v>
       </c>
       <c r="M33" t="n">
-        <v>1671.859558793925</v>
+        <v>1268.578514636218</v>
       </c>
       <c r="N33" t="n">
-        <v>2299.457522348532</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="O33" t="n">
-        <v>2553.061288060775</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P33" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q33" t="n">
         <v>2553.061288060775</v>
@@ -6832,28 +6832,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C34" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D34" t="n">
-        <v>402.7245934908938</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E34" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J34" t="n">
         <v>174.0526814782958</v>
@@ -6880,28 +6880,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T34" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U34" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V34" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W34" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X34" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y34" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="35">
@@ -6917,52 +6917,52 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192542</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J35" t="n">
-        <v>378.192580311171</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075804</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
         <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
         <v>4405.252601474784</v>
@@ -6971,13 +6971,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -6999,7 +6999,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7008,34 +7008,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516144</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L36" t="n">
-        <v>1074.481071167373</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="M36" t="n">
-        <v>1671.859558793925</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N36" t="n">
-        <v>2299.457522348532</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="O36" t="n">
-        <v>2553.061288060775</v>
+        <v>2072.35525930079</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,28 +7069,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400717</v>
+        <v>847.644273983533</v>
       </c>
       <c r="C37" t="n">
-        <v>344.9174178121648</v>
+        <v>847.644273983533</v>
       </c>
       <c r="D37" t="n">
-        <v>344.9174178121648</v>
+        <v>697.5276345711973</v>
       </c>
       <c r="E37" t="n">
-        <v>344.9174178121648</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F37" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G37" t="n">
-        <v>177.7213185270447</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782958</v>
@@ -7129,16 +7129,16 @@
         <v>1688.385853854707</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.70136564882</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611859</v>
+        <v>1398.968683817746</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138415</v>
+        <v>1170.979132919728</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703114</v>
+        <v>1029.292738813773</v>
       </c>
     </row>
     <row r="38">
@@ -7151,7 +7151,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D38" t="n">
         <v>1590.547811004713</v>
@@ -7160,7 +7160,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
@@ -7169,19 +7169,19 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
         <v>2950.898526355938</v>
@@ -7251,28 +7251,28 @@
         <v>95.58405025273906</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803938</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516144</v>
+        <v>429.5088224239597</v>
       </c>
       <c r="L39" t="n">
-        <v>1074.481071167373</v>
+        <v>924.8344286397185</v>
       </c>
       <c r="M39" t="n">
-        <v>1671.859558793925</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N39" t="n">
-        <v>2299.457522348532</v>
+        <v>2149.810879820877</v>
       </c>
       <c r="O39" t="n">
-        <v>2553.061288060775</v>
+        <v>2149.810879820877</v>
       </c>
       <c r="P39" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q39" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>571.6607764188008</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C40" t="n">
-        <v>402.7245934908938</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D40" t="n">
-        <v>402.7245934908938</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E40" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H40" t="n">
         <v>93.81666304797189</v>
@@ -7360,22 +7360,22 @@
         <v>2197.062545487568</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510509</v>
+        <v>2024.390058741045</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854707</v>
+        <v>1735.314832085242</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.70136564882</v>
+        <v>1480.630343879355</v>
       </c>
       <c r="W40" t="n">
-        <v>1202.091371290588</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X40" t="n">
-        <v>974.1018203925706</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y40" t="n">
-        <v>753.3092412490405</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="42">
@@ -7473,7 +7473,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7482,34 +7482,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K42" t="n">
-        <v>577.3880777468471</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="L42" t="n">
-        <v>1072.713683962606</v>
+        <v>315.9123021921476</v>
       </c>
       <c r="M42" t="n">
-        <v>1670.092171589158</v>
+        <v>913.2907898186995</v>
       </c>
       <c r="N42" t="n">
-        <v>2297.690135143765</v>
+        <v>1540.888753373306</v>
       </c>
       <c r="O42" t="n">
-        <v>2553.061288060775</v>
+        <v>2092.798483612593</v>
       </c>
       <c r="P42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7555,16 +7555,16 @@
         <v>344.9174178121648</v>
       </c>
       <c r="F43" t="n">
-        <v>344.9174178121648</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G43" t="n">
-        <v>177.7213185270447</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J43" t="n">
         <v>174.0526814782958</v>
@@ -7637,34 +7637,34 @@
         <v>793.7736536168616</v>
       </c>
       <c r="G44" t="n">
-        <v>379.830887436269</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797189</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192602</v>
       </c>
       <c r="J44" t="n">
         <v>378.1925803111708</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q44" t="n">
         <v>4562.265728852256</v>
@@ -7722,31 +7722,31 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803938</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516144</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="L45" t="n">
-        <v>1074.481071167373</v>
+        <v>589.1422692637307</v>
       </c>
       <c r="M45" t="n">
-        <v>1671.859558793925</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N45" t="n">
-        <v>2299.457522348532</v>
+        <v>1814.118720444889</v>
       </c>
       <c r="O45" t="n">
-        <v>2553.061288060775</v>
+        <v>2366.028450684176</v>
       </c>
       <c r="P45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400717</v>
+        <v>866.4638174991042</v>
       </c>
       <c r="C46" t="n">
-        <v>344.9174178121648</v>
+        <v>697.5276345711973</v>
       </c>
       <c r="D46" t="n">
-        <v>344.9174178121648</v>
+        <v>697.5276345711973</v>
       </c>
       <c r="E46" t="n">
-        <v>344.9174178121648</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F46" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G46" t="n">
-        <v>177.7213185270447</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797189</v>
@@ -7834,22 +7834,22 @@
         <v>2197.062545487568</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510509</v>
+        <v>2040.65412723258</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854707</v>
+        <v>1751.578900576778</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.70136564882</v>
+        <v>1496.894412370891</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611859</v>
+        <v>1496.894412370891</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138415</v>
+        <v>1268.904861472874</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703114</v>
+        <v>1048.112282329344</v>
       </c>
     </row>
   </sheetData>
@@ -8055,7 +8055,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>15.37922103265832</v>
+        <v>15.37922103265839</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -8137,22 +8137,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K4" t="n">
-        <v>14.10430989402845</v>
+        <v>88.13849915931792</v>
       </c>
       <c r="L4" t="n">
-        <v>162.4747015415544</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>171.4142040457086</v>
+        <v>171.4142040457084</v>
       </c>
       <c r="N4" t="n">
-        <v>163.8604018711119</v>
+        <v>163.8604018711116</v>
       </c>
       <c r="O4" t="n">
         <v>163.0416663658825</v>
       </c>
       <c r="P4" t="n">
-        <v>46.56605103777649</v>
+        <v>135.0065633140411</v>
       </c>
       <c r="Q4" t="n">
         <v>65.34295837775146</v>
@@ -8307,13 +8307,13 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>25.90541300402714</v>
       </c>
       <c r="P6" t="n">
         <v>247.5454807529823</v>
       </c>
       <c r="Q6" t="n">
-        <v>25.90541300402738</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8529,7 +8529,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -8541,19 +8541,19 @@
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>166.7284114382036</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>254.993141276893</v>
       </c>
       <c r="P9" t="n">
-        <v>85.55322963883486</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>30.32522655688342</v>
+        <v>30.32522655688317</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -23413,22 +23413,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>104.0840080815012</v>
       </c>
       <c r="G13" t="n">
-        <v>117.6820817884486</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -23656,7 +23656,7 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -23668,10 +23668,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>139.469330230033</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>57.22910392194173</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23893,19 +23893,19 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>125.5054897610402</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>57.22910392194174</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856552</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -24133,7 +24133,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -24142,10 +24142,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>138.4949402405078</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24178,7 +24178,7 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>63.36835372228705</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24379,10 +24379,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>57.22910392194174</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24598,25 +24598,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>46.45968844823051</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>57.22910392194174</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856552</v>
@@ -24835,28 +24835,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>112.4047682534897</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>57.22910392194173</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -25078,19 +25078,19 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>46.45968844823057</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>81.26583631856552</v>
@@ -25120,7 +25120,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>57.22910392194173</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25312,22 +25312,22 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>57.22910392194174</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856552</v>
@@ -25369,7 +25369,7 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25378,7 +25378,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>78.31512318719862</v>
       </c>
     </row>
     <row r="38">
@@ -25552,19 +25552,19 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>81.26583631856552</v>
@@ -25600,7 +25600,7 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>46.45968844823054</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25609,7 +25609,7 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>57.22910392194186</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25795,16 +25795,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>143.6212754172146</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>57.22910392194173</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -26029,16 +26029,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>57.22910392194174</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856552</v>
@@ -26074,7 +26074,7 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>62.56111625485087</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26083,7 +26083,7 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>722082.1349310394</v>
+        <v>722082.1349310395</v>
       </c>
     </row>
     <row r="5">
@@ -26311,37 +26311,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>738937.5928778548</v>
+        <v>738937.5928778554</v>
       </c>
       <c r="C2" t="n">
         <v>738937.5928778551</v>
       </c>
       <c r="D2" t="n">
-        <v>738937.5928778545</v>
+        <v>738937.5928778549</v>
       </c>
       <c r="E2" t="n">
         <v>726431.9397210052</v>
       </c>
       <c r="F2" t="n">
+        <v>726431.9397210052</v>
+      </c>
+      <c r="G2" t="n">
+        <v>726431.9397210054</v>
+      </c>
+      <c r="H2" t="n">
+        <v>726431.9397210054</v>
+      </c>
+      <c r="I2" t="n">
+        <v>726431.9397210052</v>
+      </c>
+      <c r="J2" t="n">
+        <v>726431.939721005</v>
+      </c>
+      <c r="K2" t="n">
         <v>726431.9397210053</v>
       </c>
-      <c r="G2" t="n">
-        <v>726431.9397210053</v>
-      </c>
-      <c r="H2" t="n">
-        <v>726431.9397210049</v>
-      </c>
-      <c r="I2" t="n">
-        <v>726431.939721005</v>
-      </c>
-      <c r="J2" t="n">
-        <v>726431.9397210052</v>
-      </c>
-      <c r="K2" t="n">
-        <v>726431.939721005</v>
-      </c>
       <c r="L2" t="n">
-        <v>726431.9397210052</v>
+        <v>726431.9397210054</v>
       </c>
       <c r="M2" t="n">
         <v>726431.9397210052</v>
@@ -26350,10 +26350,10 @@
         <v>726431.9397210053</v>
       </c>
       <c r="O2" t="n">
+        <v>726431.9397210053</v>
+      </c>
+      <c r="P2" t="n">
         <v>726431.9397210054</v>
-      </c>
-      <c r="P2" t="n">
-        <v>726431.9397210053</v>
       </c>
     </row>
     <row r="3">
@@ -26363,22 +26363,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>591356.9025208458</v>
+        <v>591356.9025208454</v>
       </c>
       <c r="C3" t="n">
-        <v>259123.8056778325</v>
+        <v>259123.8056778329</v>
       </c>
       <c r="D3" t="n">
-        <v>138712.7919296877</v>
+        <v>138712.7919296901</v>
       </c>
       <c r="E3" t="n">
-        <v>589678.7921745778</v>
+        <v>589678.7921745756</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1.767800767993322e-10</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,16 +26387,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>49064.94472854486</v>
+        <v>49064.94472854454</v>
       </c>
       <c r="K3" t="n">
-        <v>60247.15959153553</v>
+        <v>60247.15959153567</v>
       </c>
       <c r="L3" t="n">
-        <v>33617.87336484223</v>
+        <v>33617.87336484289</v>
       </c>
       <c r="M3" t="n">
-        <v>154073.8510167283</v>
+        <v>154073.8510167275</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26421,40 +26421,40 @@
         <v>209253.9124355573</v>
       </c>
       <c r="D4" t="n">
-        <v>170385.5244296197</v>
+        <v>170385.524429619</v>
       </c>
       <c r="E4" t="n">
-        <v>14216.75207685501</v>
+        <v>14216.75207685505</v>
       </c>
       <c r="F4" t="n">
-        <v>14216.75207685503</v>
+        <v>14216.75207685505</v>
       </c>
       <c r="G4" t="n">
         <v>14216.75207685503</v>
       </c>
       <c r="H4" t="n">
+        <v>14216.75207685503</v>
+      </c>
+      <c r="I4" t="n">
+        <v>14216.75207685503</v>
+      </c>
+      <c r="J4" t="n">
+        <v>14216.75207685509</v>
+      </c>
+      <c r="K4" t="n">
+        <v>14216.75207685505</v>
+      </c>
+      <c r="L4" t="n">
+        <v>14216.75207685499</v>
+      </c>
+      <c r="M4" t="n">
         <v>14216.75207685507</v>
       </c>
-      <c r="I4" t="n">
-        <v>14216.75207685505</v>
-      </c>
-      <c r="J4" t="n">
-        <v>14216.75207685497</v>
-      </c>
-      <c r="K4" t="n">
+      <c r="N4" t="n">
         <v>14216.75207685503</v>
       </c>
-      <c r="L4" t="n">
-        <v>14216.75207685505</v>
-      </c>
-      <c r="M4" t="n">
-        <v>14216.75207685499</v>
-      </c>
-      <c r="N4" t="n">
-        <v>14216.75207685501</v>
-      </c>
       <c r="O4" t="n">
-        <v>14216.75207685505</v>
+        <v>14216.75207685503</v>
       </c>
       <c r="P4" t="n">
         <v>14216.75207685503</v>
@@ -26467,13 +26467,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>56985.80041161359</v>
+        <v>56985.80041161357</v>
       </c>
       <c r="C5" t="n">
         <v>75611.38525919238</v>
       </c>
       <c r="D5" t="n">
-        <v>86168.04029969286</v>
+        <v>86168.04029969305</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-187574.2867178109</v>
+        <v>-187574.28671781</v>
       </c>
       <c r="C6" t="n">
-        <v>194948.4895052729</v>
+        <v>194948.4895052725</v>
       </c>
       <c r="D6" t="n">
-        <v>343671.2362188542</v>
+        <v>343671.2362188529</v>
       </c>
       <c r="E6" t="n">
-        <v>21413.86564566518</v>
+        <v>21379.12772023167</v>
       </c>
       <c r="F6" t="n">
-        <v>611092.6578202432</v>
+        <v>611057.9198948075</v>
       </c>
       <c r="G6" t="n">
-        <v>611092.6578202432</v>
+        <v>611057.9198948073</v>
       </c>
       <c r="H6" t="n">
-        <v>611092.657820243</v>
+        <v>611057.9198948075</v>
       </c>
       <c r="I6" t="n">
-        <v>611092.6578202429</v>
+        <v>611057.9198948073</v>
       </c>
       <c r="J6" t="n">
-        <v>562027.7130916982</v>
+        <v>561992.9751662626</v>
       </c>
       <c r="K6" t="n">
-        <v>550845.4982287074</v>
+        <v>550810.7603032718</v>
       </c>
       <c r="L6" t="n">
-        <v>577474.7844554008</v>
+        <v>577440.0465299648</v>
       </c>
       <c r="M6" t="n">
-        <v>457018.8068035147</v>
+        <v>456984.0688780798</v>
       </c>
       <c r="N6" t="n">
-        <v>611092.6578202432</v>
+        <v>611057.9198948075</v>
       </c>
       <c r="O6" t="n">
-        <v>611092.6578202433</v>
+        <v>611057.9198948075</v>
       </c>
       <c r="P6" t="n">
-        <v>611092.6578202432</v>
+        <v>611057.9198948075</v>
       </c>
     </row>
   </sheetData>
@@ -26707,7 +26707,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26735,13 +26735,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129049</v>
+        <v>548.4699409129046</v>
       </c>
       <c r="C3" t="n">
         <v>749.98095649761</v>
       </c>
       <c r="D3" t="n">
-        <v>863.7717861790429</v>
+        <v>863.7717861790449</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26787,46 +26787,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.5255871663202</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="C4" t="n">
         <v>421.6151382819818</v>
       </c>
       <c r="D4" t="n">
-        <v>554.4443315952258</v>
+        <v>554.4443315952283</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
         <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
+        <v>1172.708288099649</v>
+      </c>
+      <c r="I4" t="n">
+        <v>1172.708288099649</v>
+      </c>
+      <c r="J4" t="n">
         <v>1172.708288099648</v>
-      </c>
-      <c r="I4" t="n">
-        <v>1172.708288099648</v>
-      </c>
-      <c r="J4" t="n">
-        <v>1172.708288099649</v>
       </c>
       <c r="K4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
+        <v>1172.708288099649</v>
+      </c>
+      <c r="M4" t="n">
         <v>1172.708288099648</v>
-      </c>
-      <c r="M4" t="n">
-        <v>1172.708288099649</v>
       </c>
       <c r="N4" t="n">
         <v>1172.708288099649</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="P4" t="n">
         <v>1172.708288099649</v>
@@ -26914,10 +26914,10 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>-3.218023548783847e-14</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -26935,7 +26935,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>-4.469477151088676e-14</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26957,22 +26957,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129049</v>
+        <v>548.4699409129046</v>
       </c>
       <c r="C3" t="n">
-        <v>201.5110155847051</v>
+        <v>201.5110155847054</v>
       </c>
       <c r="D3" t="n">
-        <v>113.7908296814329</v>
+        <v>113.7908296814348</v>
       </c>
       <c r="E3" t="n">
-        <v>504.2037141626311</v>
+        <v>504.2037141626291</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>-2.273736754432321e-13</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26981,7 +26981,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27009,16 +27009,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.5255871663202</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="C4" t="n">
-        <v>234.0895511156616</v>
+        <v>234.0895511156619</v>
       </c>
       <c r="D4" t="n">
-        <v>132.829193313244</v>
+        <v>132.8291933132465</v>
       </c>
       <c r="E4" t="n">
-        <v>618.2639565044228</v>
+        <v>618.2639565044203</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27033,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.5255871663204</v>
+        <v>187.5255871663197</v>
       </c>
       <c r="K4" t="n">
-        <v>234.0895511156614</v>
+        <v>234.0895511156619</v>
       </c>
       <c r="L4" t="n">
-        <v>132.829193313244</v>
+        <v>132.8291933132467</v>
       </c>
       <c r="M4" t="n">
-        <v>618.2639565044232</v>
+        <v>618.2639565044201</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27154,7 +27154,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -27255,16 +27255,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.5255871663202</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="K4" t="n">
-        <v>234.0895511156616</v>
+        <v>234.0895511156619</v>
       </c>
       <c r="L4" t="n">
-        <v>132.829193313244</v>
+        <v>132.8291933132465</v>
       </c>
       <c r="M4" t="n">
-        <v>618.2639565044228</v>
+        <v>618.2639565044203</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,7 +27376,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>195.2082544971604</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -27385,13 +27385,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>194.4047829059416</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>266.1666409393561</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>225.5722460637381</v>
       </c>
       <c r="H2" t="n">
         <v>316.8938261062223</v>
@@ -27427,16 +27427,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>158.7758131900531</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>213.4438810562068</v>
+        <v>37.76291478923827</v>
       </c>
       <c r="U2" t="n">
-        <v>63.64367339871013</v>
+        <v>251.1692605650303</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>140.226671303815</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -27455,19 +27455,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>61.65174237655124</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
         <v>136.1637893657753</v>
@@ -27476,7 +27476,7 @@
         <v>100.8417573507397</v>
       </c>
       <c r="I3" t="n">
-        <v>48.77881175550655</v>
+        <v>48.77881175550657</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27503,22 +27503,22 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>26.91122581714232</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>149.7702446909496</v>
       </c>
       <c r="T3" t="n">
-        <v>195.4095977920012</v>
+        <v>7.884010625681356</v>
       </c>
       <c r="U3" t="n">
-        <v>225.8637684100909</v>
+        <v>38.33818124377103</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>98.61658362396335</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
@@ -27543,22 +27543,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>167.0019352027142</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>153.4336708318196</v>
       </c>
       <c r="I4" t="n">
-        <v>125.7072197708666</v>
+        <v>125.7072197708667</v>
       </c>
       <c r="J4" t="n">
-        <v>23.43375830553079</v>
+        <v>23.43375830553084</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,28 +27579,28 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>3.343082173845744</v>
+        <v>3.343082173845801</v>
       </c>
       <c r="R4" t="n">
-        <v>132.8223696106904</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>206.7802557954962</v>
+        <v>19.25466862917634</v>
       </c>
       <c r="T4" t="n">
-        <v>223.7196734901001</v>
+        <v>36.1940863237802</v>
       </c>
       <c r="U4" t="n">
         <v>286.2650814934503</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>219.7874757584239</v>
       </c>
       <c r="W4" t="n">
-        <v>191.5879683291758</v>
+        <v>98.99741117027111</v>
       </c>
       <c r="X4" t="n">
-        <v>38.18406822271695</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27613,16 +27613,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>240.8150985905156</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
@@ -27631,7 +27631,7 @@
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>288.2619378950216</v>
+        <v>308.5974454495113</v>
       </c>
       <c r="I5" t="n">
         <v>94.24014755885166</v>
@@ -27664,7 +27664,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>140.3157839734241</v>
       </c>
       <c r="T5" t="n">
         <v>209.8976922291835</v>
@@ -27676,13 +27676,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27695,19 +27695,19 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>29.83928227370038</v>
+        <v>135.7303505775365</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -27743,25 +27743,25 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>141.7193093041456</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>193.6625353078282</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8352527003384</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>84.15315476765613</v>
       </c>
     </row>
     <row r="7">
@@ -27777,16 +27777,16 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.6385546828073</v>
       </c>
       <c r="H7" t="n">
         <v>150.2028876639205</v>
@@ -27819,28 +27819,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>116.4834600519698</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>23.32560730401073</v>
+        <v>200.4475243713015</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>23.18145873567968</v>
       </c>
       <c r="U7" t="n">
-        <v>286.245260737819</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27850,28 +27850,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>214.1060732389947</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>303.9125797832803</v>
+        <v>303.9125797832801</v>
       </c>
       <c r="I8" t="n">
-        <v>76.60428439787302</v>
+        <v>76.6042843978727</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,22 +27901,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>129.8916290734616</v>
+        <v>129.8916290734614</v>
       </c>
       <c r="T8" t="n">
-        <v>207.895202352076</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.0678569565025</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>53.42984467024843</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -27929,10 +27929,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>1.332603665098333</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -27941,16 +27941,16 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>135.4855929438821</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>16.37735975001959</v>
+        <v>25.42862793155184</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27983,7 +27983,7 @@
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>192.675990284458</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
         <v>0</v>
@@ -28011,7 +28011,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -28020,16 +28020,16 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.4333581046933</v>
       </c>
       <c r="H10" t="n">
-        <v>148.3785035421428</v>
+        <v>148.3785035421427</v>
       </c>
       <c r="I10" t="n">
-        <v>108.6085557685653</v>
+        <v>108.6085557685652</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,28 +28056,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>107.2570757305868</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>196.8715076418046</v>
       </c>
       <c r="T10" t="n">
-        <v>221.2902986167381</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2340681971946</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>238.6152408786325</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>148.5858008078591</v>
       </c>
     </row>
     <row r="11">
@@ -28093,7 +28093,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>-8.300560239149491e-13</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -28564,7 +28564,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>-7.553251631224171e-14</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -28801,7 +28801,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -29050,7 +29050,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>-7.553251631224171e-14</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -29329,7 +29329,7 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>-1.730455778670148e-12</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -29338,7 +29338,7 @@
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -29563,7 +29563,7 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>-1.868909745143369e-14</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -29998,7 +29998,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -30037,7 +30037,7 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>-9.900301893025514e-13</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -30220,7 +30220,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>-9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -30235,7 +30235,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>-7.553251631224171e-14</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -30712,7 +30712,7 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>-7.553251631224171e-14</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -31039,49 +31039,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.204904285077003</v>
+        <v>2.204904285077002</v>
       </c>
       <c r="H2" t="n">
-        <v>22.58097600954486</v>
+        <v>22.58097600954485</v>
       </c>
       <c r="I2" t="n">
-        <v>85.00457245043124</v>
+        <v>85.00457245043118</v>
       </c>
       <c r="J2" t="n">
-        <v>187.1384950655545</v>
+        <v>187.1384950655543</v>
       </c>
       <c r="K2" t="n">
-        <v>280.472093452864</v>
+        <v>280.4720934528639</v>
       </c>
       <c r="L2" t="n">
-        <v>347.9504329672894</v>
+        <v>347.9504329672893</v>
       </c>
       <c r="M2" t="n">
-        <v>387.1618995470276</v>
+        <v>387.1618995470274</v>
       </c>
       <c r="N2" t="n">
-        <v>393.4265838470026</v>
+        <v>393.4265838470024</v>
       </c>
       <c r="O2" t="n">
-        <v>371.5015668622682</v>
+        <v>371.501566862268</v>
       </c>
       <c r="P2" t="n">
-        <v>317.0679923244296</v>
+        <v>317.0679923244294</v>
       </c>
       <c r="Q2" t="n">
-        <v>238.1048576151094</v>
+        <v>238.1048576151092</v>
       </c>
       <c r="R2" t="n">
-        <v>138.5038187974684</v>
+        <v>138.5038187974683</v>
       </c>
       <c r="S2" t="n">
-        <v>50.24425639619226</v>
+        <v>50.24425639619223</v>
       </c>
       <c r="T2" t="n">
-        <v>9.651968507924586</v>
+        <v>9.651968507924579</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1763923428061602</v>
+        <v>0.1763923428061601</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31118,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.179727797435305</v>
+        <v>1.179727797435304</v>
       </c>
       <c r="H3" t="n">
         <v>11.39368688575676</v>
       </c>
       <c r="I3" t="n">
-        <v>40.61782109590853</v>
+        <v>40.6178210959085</v>
       </c>
       <c r="J3" t="n">
-        <v>111.4584056340084</v>
+        <v>111.4584056340083</v>
       </c>
       <c r="K3" t="n">
-        <v>190.5001680621738</v>
+        <v>190.5001680621737</v>
       </c>
       <c r="L3" t="n">
-        <v>256.1509851405034</v>
+        <v>256.1509851405032</v>
       </c>
       <c r="M3" t="n">
-        <v>298.9161177975332</v>
+        <v>298.9161177975329</v>
       </c>
       <c r="N3" t="n">
-        <v>306.8275379829656</v>
+        <v>306.8275379829654</v>
       </c>
       <c r="O3" t="n">
-        <v>280.6872536292675</v>
+        <v>280.6872536292673</v>
       </c>
       <c r="P3" t="n">
-        <v>225.2762668628873</v>
+        <v>225.2762668628872</v>
       </c>
       <c r="Q3" t="n">
-        <v>150.5912184936716</v>
+        <v>150.5912184936715</v>
       </c>
       <c r="R3" t="n">
-        <v>73.24660833550081</v>
+        <v>73.24660833550075</v>
       </c>
       <c r="S3" t="n">
-        <v>21.91292641288821</v>
+        <v>21.9129264128882</v>
       </c>
       <c r="T3" t="n">
-        <v>4.755130902820373</v>
+        <v>4.755130902820369</v>
       </c>
       <c r="U3" t="n">
-        <v>0.07761367088390167</v>
+        <v>0.07761367088390163</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31197,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.9890441557445825</v>
+        <v>0.9890441557445819</v>
       </c>
       <c r="H4" t="n">
-        <v>8.793501675620021</v>
+        <v>8.793501675620016</v>
       </c>
       <c r="I4" t="n">
-        <v>29.74325515639164</v>
+        <v>29.74325515639162</v>
       </c>
       <c r="J4" t="n">
-        <v>69.92542181114199</v>
+        <v>69.92542181114193</v>
       </c>
       <c r="K4" t="n">
         <v>114.9089482765069</v>
@@ -31215,31 +31215,31 @@
         <v>147.0438920276991</v>
       </c>
       <c r="M4" t="n">
-        <v>155.0371670682167</v>
+        <v>155.0371670682166</v>
       </c>
       <c r="N4" t="n">
         <v>151.3507297604415</v>
       </c>
       <c r="O4" t="n">
-        <v>139.7968957592434</v>
+        <v>139.7968957592433</v>
       </c>
       <c r="P4" t="n">
         <v>119.6203949820538</v>
       </c>
       <c r="Q4" t="n">
-        <v>82.81896107784864</v>
+        <v>82.81896107784858</v>
       </c>
       <c r="R4" t="n">
-        <v>44.47102176647913</v>
+        <v>44.4710217664791</v>
       </c>
       <c r="S4" t="n">
-        <v>17.23634224147604</v>
+        <v>17.23634224147603</v>
       </c>
       <c r="T4" t="n">
-        <v>4.225915938181397</v>
+        <v>4.225915938181394</v>
       </c>
       <c r="U4" t="n">
-        <v>0.05394786304061366</v>
+        <v>0.05394786304061362</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.472449391674542</v>
+        <v>3.472449391674549</v>
       </c>
       <c r="H8" t="n">
-        <v>35.56222233248691</v>
+        <v>35.56222233248699</v>
       </c>
       <c r="I8" t="n">
-        <v>133.8716051725329</v>
+        <v>133.8716051725332</v>
       </c>
       <c r="J8" t="n">
-        <v>294.7198015566374</v>
+        <v>294.7198015566381</v>
       </c>
       <c r="K8" t="n">
-        <v>441.7085843062209</v>
+        <v>441.7085843062218</v>
       </c>
       <c r="L8" t="n">
-        <v>547.9785573766807</v>
+        <v>547.9785573766819</v>
       </c>
       <c r="M8" t="n">
-        <v>609.7317292458728</v>
+        <v>609.7317292458741</v>
       </c>
       <c r="N8" t="n">
-        <v>619.5978260799682</v>
+        <v>619.5978260799695</v>
       </c>
       <c r="O8" t="n">
-        <v>585.0686574415045</v>
+        <v>585.0686574415057</v>
       </c>
       <c r="P8" t="n">
-        <v>499.3425630845391</v>
+        <v>499.3425630845402</v>
       </c>
       <c r="Q8" t="n">
-        <v>374.9854692451945</v>
+        <v>374.9854692451952</v>
       </c>
       <c r="R8" t="n">
-        <v>218.1262490997761</v>
+        <v>218.1262490997766</v>
       </c>
       <c r="S8" t="n">
-        <v>79.1284405127837</v>
+        <v>79.12844051278388</v>
       </c>
       <c r="T8" t="n">
-        <v>15.20064721205531</v>
+        <v>15.20064721205535</v>
       </c>
       <c r="U8" t="n">
-        <v>0.2777959513339633</v>
+        <v>0.2777959513339639</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>1.857924219328507</v>
+        <v>1.857924219328512</v>
       </c>
       <c r="H9" t="n">
-        <v>17.94363653930427</v>
+        <v>17.94363653930431</v>
       </c>
       <c r="I9" t="n">
-        <v>63.96800491986309</v>
+        <v>63.96800491986324</v>
       </c>
       <c r="J9" t="n">
-        <v>175.5330947743657</v>
+        <v>175.5330947743661</v>
       </c>
       <c r="K9" t="n">
-        <v>300.0140174693757</v>
+        <v>300.0140174693764</v>
       </c>
       <c r="L9" t="n">
-        <v>403.4058705169201</v>
+        <v>403.405870516921</v>
       </c>
       <c r="M9" t="n">
-        <v>470.7556234675783</v>
+        <v>470.7556234675794</v>
       </c>
       <c r="N9" t="n">
-        <v>483.2151240436893</v>
+        <v>483.2151240436904</v>
       </c>
       <c r="O9" t="n">
-        <v>442.0474347627787</v>
+        <v>442.0474347627797</v>
       </c>
       <c r="P9" t="n">
-        <v>354.7820379873884</v>
+        <v>354.7820379873892</v>
       </c>
       <c r="Q9" t="n">
-        <v>237.1623968391969</v>
+        <v>237.1623968391974</v>
       </c>
       <c r="R9" t="n">
-        <v>115.3542774070805</v>
+        <v>115.3542774070808</v>
       </c>
       <c r="S9" t="n">
-        <v>34.51012749498344</v>
+        <v>34.51012749498351</v>
       </c>
       <c r="T9" t="n">
-        <v>7.488738410363586</v>
+        <v>7.488738410363603</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1222318565347703</v>
+        <v>0.1222318565347705</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.557621253765487</v>
+        <v>1.557621253765491</v>
       </c>
       <c r="H10" t="n">
-        <v>13.8486689652968</v>
+        <v>13.84866896529683</v>
       </c>
       <c r="I10" t="n">
-        <v>46.84191915869302</v>
+        <v>46.84191915869313</v>
       </c>
       <c r="J10" t="n">
-        <v>110.1238226412199</v>
+        <v>110.1238226412202</v>
       </c>
       <c r="K10" t="n">
-        <v>180.9672693011175</v>
+        <v>180.9672693011179</v>
       </c>
       <c r="L10" t="n">
-        <v>231.5757998552798</v>
+        <v>231.5757998552803</v>
       </c>
       <c r="M10" t="n">
-        <v>244.1642116243481</v>
+        <v>244.1642116243486</v>
       </c>
       <c r="N10" t="n">
-        <v>238.3585324057678</v>
+        <v>238.3585324057684</v>
       </c>
       <c r="O10" t="n">
-        <v>220.1626841231437</v>
+        <v>220.1626841231441</v>
       </c>
       <c r="P10" t="n">
-        <v>188.3872105463276</v>
+        <v>188.387210546328</v>
       </c>
       <c r="Q10" t="n">
-        <v>130.4295397130355</v>
+        <v>130.4295397130358</v>
       </c>
       <c r="R10" t="n">
-        <v>70.03631564658271</v>
+        <v>70.03631564658286</v>
       </c>
       <c r="S10" t="n">
-        <v>27.14509039516761</v>
+        <v>27.14509039516767</v>
       </c>
       <c r="T10" t="n">
-        <v>6.655290811543443</v>
+        <v>6.655290811543458</v>
       </c>
       <c r="U10" t="n">
-        <v>0.0849611592962994</v>
+        <v>0.08496115929629958</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31838,13 +31838,13 @@
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>399.9031616963282</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
         <v>745.5466476862122</v>
@@ -31856,10 +31856,10 @@
         <v>700.0808204437244</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214699</v>
+        <v>436.4492970000073</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +31999,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,10 +32066,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
@@ -32081,34 +32081,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>718.5832682008314</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32148,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32175,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32309,16 +32309,16 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>164.2853229338202</v>
+        <v>194.5189324111248</v>
       </c>
       <c r="M18" t="n">
         <v>745.5466476862122</v>
@@ -32327,7 +32327,7 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
         <v>561.8765786214699</v>
@@ -32336,7 +32336,7 @@
         <v>375.5996128485291</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742439</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32473,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>229.6463482471735</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>652.0478969157701</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N21" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32622,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32649,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,10 +32777,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
         <v>99.52238</v>
@@ -32789,37 +32789,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>326.7634969305194</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>324.5433647340731</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33026,13 +33026,13 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M27" t="n">
-        <v>734.2678383622658</v>
+        <v>396.9700886943664</v>
       </c>
       <c r="N27" t="n">
         <v>765.2790490071786</v>
@@ -33263,19 +33263,19 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>734.267838362266</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437244</v>
+        <v>491.5977325265315</v>
       </c>
       <c r="P30" t="n">
         <v>561.8765786214699</v>
@@ -33284,7 +33284,7 @@
         <v>375.5996128485291</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742439</v>
@@ -33494,13 +33494,13 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>277.9958514420755</v>
+        <v>209.7242506524596</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
         <v>638.8832749473073</v>
@@ -33512,13 +33512,13 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
-        <v>398.7616643558013</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R33" t="n">
         <v>145.679503963964</v>
@@ -33652,7 +33652,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067226</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
@@ -33731,10 +33731,10 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
         <v>475.1391886422586</v>
@@ -33746,19 +33746,19 @@
         <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O36" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>346.9084613860364</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742439</v>
@@ -33916,7 +33916,7 @@
         <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S38" t="n">
         <v>125.3175546292901</v>
@@ -33971,7 +33971,7 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
         <v>475.1391886422586</v>
@@ -33986,16 +33986,16 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
-        <v>398.7616643558013</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>268.6704608606959</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R39" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742439</v>
@@ -34126,7 +34126,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
@@ -34205,16 +34205,16 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473073</v>
+        <v>209.9499448422518</v>
       </c>
       <c r="M42" t="n">
         <v>745.5466476862122</v>
@@ -34223,16 +34223,16 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742439</v>
@@ -34442,13 +34442,13 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
         <v>638.8832749473073</v>
@@ -34460,16 +34460,16 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>285.8867128925984</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742439</v>
@@ -34696,28 +34696,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>6.092590538868166</v>
+        <v>6.092590538868052</v>
       </c>
       <c r="K2" t="n">
-        <v>60.3822424078835</v>
+        <v>60.38224240788333</v>
       </c>
       <c r="L2" t="n">
-        <v>112.1840179973022</v>
+        <v>112.184017997302</v>
       </c>
       <c r="M2" t="n">
-        <v>156.8156663197549</v>
+        <v>156.8156663197546</v>
       </c>
       <c r="N2" t="n">
-        <v>164.0135202504117</v>
+        <v>164.0135202504115</v>
       </c>
       <c r="O2" t="n">
-        <v>141.4033554405815</v>
+        <v>141.4033554405812</v>
       </c>
       <c r="P2" t="n">
-        <v>85.83499656916007</v>
+        <v>85.8349965691599</v>
       </c>
       <c r="Q2" t="n">
-        <v>15.7991677406599</v>
+        <v>15.79916774065975</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34778,25 +34778,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>52.65872908781481</v>
+        <v>52.65872908781469</v>
       </c>
       <c r="L3" t="n">
-        <v>117.5966053606292</v>
+        <v>117.596605360629</v>
       </c>
       <c r="M3" t="n">
-        <v>156.7820838755148</v>
+        <v>156.7820838755146</v>
       </c>
       <c r="N3" t="n">
-        <v>175.4858258996323</v>
+        <v>175.4858258996321</v>
       </c>
       <c r="O3" t="n">
-        <v>138.0910091848231</v>
+        <v>138.0910091848229</v>
       </c>
       <c r="P3" t="n">
-        <v>91.30185944855708</v>
+        <v>91.30185944855694</v>
       </c>
       <c r="Q3" t="n">
-        <v>10.60944440765005</v>
+        <v>10.60944440764996</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34857,22 +34857,22 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>74.0341892652894</v>
       </c>
       <c r="L4" t="n">
-        <v>174.6339172880153</v>
+        <v>12.15921574646077</v>
       </c>
       <c r="M4" t="n">
-        <v>187.5255871663202</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="N4" t="n">
-        <v>187.5255871663202</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="O4" t="n">
-        <v>164.3820236732831</v>
+        <v>164.382023673283</v>
       </c>
       <c r="P4" t="n">
-        <v>28.4584419706827</v>
+        <v>116.8989542469472</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -35027,13 +35027,13 @@
         <v>288.2160307407402</v>
       </c>
       <c r="O6" t="n">
-        <v>241.2171229812712</v>
+        <v>267.1225359852983</v>
       </c>
       <c r="P6" t="n">
         <v>421.6151382819818</v>
       </c>
       <c r="Q6" t="n">
-        <v>91.84293852089688</v>
+        <v>65.9375255168695</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>113.6738970299511</v>
+        <v>113.6738970299518</v>
       </c>
       <c r="K8" t="n">
-        <v>221.6187332612403</v>
+        <v>221.6187332612413</v>
       </c>
       <c r="L8" t="n">
-        <v>312.2121424066934</v>
+        <v>312.2121424066947</v>
       </c>
       <c r="M8" t="n">
-        <v>379.3854960186001</v>
+        <v>379.3854960186014</v>
       </c>
       <c r="N8" t="n">
-        <v>390.1847624833773</v>
+        <v>390.1847624833786</v>
       </c>
       <c r="O8" t="n">
-        <v>354.9704460198177</v>
+        <v>354.970446019819</v>
       </c>
       <c r="P8" t="n">
-        <v>268.1095673292695</v>
+        <v>268.1095673292706</v>
       </c>
       <c r="Q8" t="n">
-        <v>152.679779370745</v>
+        <v>152.6797793707458</v>
       </c>
       <c r="R8" t="n">
-        <v>2.540711285643994</v>
+        <v>2.540711285644505</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>174.7865034481079</v>
+        <v>48.69546810769941</v>
       </c>
       <c r="K9" t="n">
-        <v>162.1725784950167</v>
+        <v>162.1725784950174</v>
       </c>
       <c r="L9" t="n">
-        <v>264.8514907370459</v>
+        <v>264.8514907370468</v>
       </c>
       <c r="M9" t="n">
-        <v>328.62158954556</v>
+        <v>328.6215895455611</v>
       </c>
       <c r="N9" t="n">
-        <v>351.8734119603561</v>
+        <v>518.6018233985607</v>
       </c>
       <c r="O9" t="n">
-        <v>299.4511903183342</v>
+        <v>554.4443315952283</v>
       </c>
       <c r="P9" t="n">
-        <v>306.3608602118931</v>
+        <v>220.807630573059</v>
       </c>
       <c r="Q9" t="n">
-        <v>307.2579104890244</v>
+        <v>97.1806227531759</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>16.76464252454716</v>
+        <v>16.7646425245474</v>
       </c>
       <c r="K10" t="n">
-        <v>158.6977774752346</v>
+        <v>158.697777475235</v>
       </c>
       <c r="L10" t="n">
-        <v>259.165825115596</v>
+        <v>259.1658251155965</v>
       </c>
       <c r="M10" t="n">
-        <v>283.7480885861887</v>
+        <v>283.7480885861892</v>
       </c>
       <c r="N10" t="n">
-        <v>282.4907047849964</v>
+        <v>282.490704784997</v>
       </c>
       <c r="O10" t="n">
-        <v>244.7478120371833</v>
+        <v>244.7478120371838</v>
       </c>
       <c r="P10" t="n">
-        <v>185.6657698112211</v>
+        <v>185.6657698112215</v>
       </c>
       <c r="Q10" t="n">
-        <v>44.26749646134108</v>
+        <v>44.26749646134139</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35486,13 +35486,13 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>261.348781916454</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
@@ -35504,10 +35504,10 @@
         <v>557.48457599928</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071396</v>
+        <v>302.474889585677</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35729,22 +35729,22 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>587.2415561174981</v>
       </c>
       <c r="O15" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35957,16 +35957,16 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>25.73094315394598</v>
+        <v>55.96455263125056</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
@@ -35975,7 +35975,7 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>427.9021712071396</v>
@@ -35984,7 +35984,7 @@
         <v>235.6178387625076</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,31 +36197,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678996</v>
+        <v>91.80490927281451</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
-        <v>509.9138629937518</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36437,28 +36437,28 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>188.9220579561604</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641938</v>
+        <v>182.4093308120547</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36674,13 +36674,13 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>592.1338044402476</v>
+        <v>254.8360547723481</v>
       </c>
       <c r="N27" t="n">
         <v>633.9373369238454</v>
@@ -36911,19 +36911,19 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
-        <v>592.1338044402477</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
-        <v>557.48457599928</v>
+        <v>349.0014880820871</v>
       </c>
       <c r="P30" t="n">
         <v>427.9021712071396</v>
@@ -36932,7 +36932,7 @@
         <v>235.6178387625076</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37142,13 +37142,13 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>151.1582247754088</v>
+        <v>82.88662398579288</v>
       </c>
       <c r="K33" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>500.3288951674331</v>
@@ -37160,13 +37160,13 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
-        <v>256.1654199113569</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37300,7 +37300,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236316704</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
@@ -37379,10 +37379,10 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>337.2977496678996</v>
@@ -37394,19 +37394,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>256.1654199113569</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>212.9340539717061</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37564,7 +37564,7 @@
         <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,7 +37619,7 @@
         <v>1.785239600774929</v>
       </c>
       <c r="J39" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>337.2977496678996</v>
@@ -37634,16 +37634,16 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
-        <v>256.1654199113569</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>134.6960534463657</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37774,7 +37774,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
@@ -37853,16 +37853,16 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674331</v>
+        <v>71.39556506237764</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
@@ -37871,16 +37871,16 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
-        <v>257.9506595121318</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38090,13 +38090,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>500.3288951674331</v>
@@ -38108,16 +38108,16 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
-        <v>256.1654199113569</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>151.9123054782682</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
